--- a/biology/Médecine/Franz_Christian_Boll/Franz_Christian_Boll.xlsx
+++ b/biology/Médecine/Franz_Christian_Boll/Franz_Christian_Boll.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Christian Boll (né le 26 février 1849 à Neubrandenbourg, mort le 19 décembre 1879 à Rome) est un médecin et physiologiste allemand, découvreur de la rhodopsine en 1876.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Christian Boll est le quatrième des sept enfants du pasteur et historien Franz Boll. Son père lui donne d'abord lui-même une excellente éducation puis il va au gymnasium de Neubrandenbourg où il obtient l'abitur en 1866. Il étudie la médecine à Bonn, Heidelberg et Université Humboldt de Berlin. Élève de Max Johann Sigismund Schultze, il publie plusieurs travaux d'histologie. En 1869, il obtient son doctorat. L'année suivante, il devient l'assistant d'Emil du Bois-Reymond.
 Pour des raisons de santé, il essaie d'avoir un travail en Italie. Après une candidature à Gênes, il obtient en 1873 à Rome une chaire d'anatomie et de physiologie comparée. Il découvre alors le pourpre rétinien et continue ses recherches. On appelle "cellules de Boll" les cellules en panier (en) présentes dans les glandes lacrymales.
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Untersuchungen über die Zahnpulpa. In: Archiv für mikroskopische Anatomie. Bd. IV
 Die Lorenzinischen Ampullen der Selachier. In: Archiv für mikroskopische Anatomie. Bd. IV
